--- a/data/trans_dic/IP09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP09-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,29%</t>
+          <t>22,31%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>48,96%</t>
+          <t>52,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,62%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,12%</t>
+          <t>30,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>54,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>20,5%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>42,0%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>41,6%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>36,46%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,48; 55,14</t>
+          <t>10,32; 37,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,93; 59,29</t>
+          <t>9,56; 37,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,34; 68,98</t>
+          <t>30,59; 75,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,84; 52,74</t>
+          <t>13,9; 45,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,73; 55,55</t>
+          <t>7,17; 35,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,79; 55,37</t>
+          <t>23,5; 52,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,77; 65,79</t>
+          <t>14,19; 53,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,08; 47,68</t>
+          <t>30,83; 79,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,42; 48,85</t>
+          <t>11,97; 30,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,33; 54,17</t>
+          <t>20,7; 40,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>29,99; 62,06</t>
+          <t>27,8; 57,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,2; 44,47</t>
+          <t>23,92; 51,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>45,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>52,43%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>36,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>37,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>54,37%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>37,27%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>42,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>33,53%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,32; 37,65</t>
+          <t>25,48; 55,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,56; 37,35</t>
+          <t>30,93; 59,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,59; 75,03</t>
+          <t>25,34; 68,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,9; 45,78</t>
+          <t>20,84; 52,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,17; 35,22</t>
+          <t>16,73; 55,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,5; 52,6</t>
+          <t>21,79; 55,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,19; 53,72</t>
+          <t>21,77; 65,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,83; 79,59</t>
+          <t>17,08; 47,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,97; 30,23</t>
+          <t>25,42; 48,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,7; 40,45</t>
+          <t>31,33; 54,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,8; 57,56</t>
+          <t>29,99; 62,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,92; 51,1</t>
+          <t>23,2; 44,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP09-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>29,45%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>39,94%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>33,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>46,97%</t>
+          <t>50,14%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>28,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>23,18%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>31,25%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>43,17%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>28,02%</t>
+          <t>16,08%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,63; 38,12</t>
+          <t>12,62; 51,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,07; 44,74</t>
+          <t>15,91; 48,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,38; 57,04</t>
+          <t>8,97; 48,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,48; 41,91</t>
+          <t>0,0; 33,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,55; 38,01</t>
+          <t>9,8; 60,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,81; 43,2</t>
+          <t>18,86; 51,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,67; 64,35</t>
+          <t>24,36; 73,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,24; 56,25</t>
+          <t>6,16; 57,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,99; 34,16</t>
+          <t>16,23; 46,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,2; 40,64</t>
+          <t>20,39; 42,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,95; 55,27</t>
+          <t>20,38; 51,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>17,5; 40,52</t>
+          <t>6,13; 35,59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,31%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,43%</t>
+          <t>55,57%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>37,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,8%</t>
+          <t>16,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,5%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,87%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>54,37%</t>
+          <t>52,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,5%</t>
+          <t>18,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>29,57%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>45,23%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>41,89%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,32; 37,65</t>
+          <t>11,59; 34,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 37,35</t>
+          <t>15,34; 37,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,59; 75,03</t>
+          <t>37,24; 72,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,9; 45,78</t>
+          <t>22,17; 55,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 35,22</t>
+          <t>7,02; 31,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,5; 52,6</t>
+          <t>17,77; 48,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,19; 53,72</t>
+          <t>17,95; 52,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,83; 79,59</t>
+          <t>27,92; 77,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,97; 30,23</t>
+          <t>12,17; 27,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,7; 40,45</t>
+          <t>19,66; 38,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,8; 57,56</t>
+          <t>32,8; 59,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,92; 51,1</t>
+          <t>28,87; 55,73</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>40,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>45,29%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>48,96%</t>
+          <t>76,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>33,62%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,33%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>42,12%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>46,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>42,0%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>45,68%</t>
+          <t>55,01%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>44,43%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,48; 55,14</t>
+          <t>22,58; 63,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,93; 59,29</t>
+          <t>9,04; 47,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,34; 68,98</t>
+          <t>30,09; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,84; 52,74</t>
+          <t>24,65; 63,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,73; 55,55</t>
+          <t>9,72; 50,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,79; 55,37</t>
+          <t>17,76; 52,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,77; 65,79</t>
+          <t>15,19; 68,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,08; 47,68</t>
+          <t>25,32; 67,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,42; 48,85</t>
+          <t>20,09; 47,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>31,33; 54,17</t>
+          <t>20,18; 44,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>29,99; 62,06</t>
+          <t>33,37; 77,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,2; 44,47</t>
+          <t>30,46; 59,05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,8%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>55,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>46,21%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31,85%</t>
+          <t>29,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>40,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>40,48%</t>
+          <t>44,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,02%</t>
+          <t>23,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>32,66%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>50,29%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>41,23%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>26,67%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,67; 36,82</t>
+          <t>15,05; 51,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 42,65</t>
+          <t>39,43; 72,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,37; 58,14</t>
+          <t>17,62; 66,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,38; 41,43</t>
+          <t>13,08; 46,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,34; 32,43</t>
+          <t>7,94; 62,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,05; 42,84</t>
+          <t>20,73; 65,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,68; 52,38</t>
+          <t>21,72; 71,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,22; 45,99</t>
+          <t>9,57; 47,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,95; 33,06</t>
+          <t>19,57; 49,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,93; 40,34</t>
+          <t>36,65; 62,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,85; 52,0</t>
+          <t>23,05; 58,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,25; 41,08</t>
+          <t>15,65; 40,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>28,8%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>33,44%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>46,21%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31,85%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>22,76%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>34,27%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>40,48%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>35,02%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26,37%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33,81%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>43,47%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>33,12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>21,3; 36,81</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25,55; 40,8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>35,08; 57,74</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>22,22; 40,9</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>14,66; 32,42</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>26,47; 43,01</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29,63; 52,87</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>25,18; 48,09</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>20,87; 32,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>28,6; 39,6</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>35,95; 52,23</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>25,83; 40,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP09-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,62; 51,05</t>
+          <t>12,63; 50,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,91; 48,34</t>
+          <t>15,63; 47,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,97; 48,65</t>
+          <t>8,96; 49,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,86</t>
+          <t>0,0; 28,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,8; 60,34</t>
+          <t>7,32; 57,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,86; 51,11</t>
+          <t>17,82; 50,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,36; 73,91</t>
+          <t>25,43; 75,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 57,0</t>
+          <t>6,01; 61,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,23; 46,26</t>
+          <t>15,39; 45,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>20,39; 42,61</t>
+          <t>21,01; 43,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,38; 51,14</t>
+          <t>20,77; 51,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 35,59</t>
+          <t>5,06; 32,32</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,59; 34,41</t>
+          <t>11,15; 32,67</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,34; 37,92</t>
+          <t>14,93; 38,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,24; 72,44</t>
+          <t>36,63; 72,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,17; 55,52</t>
+          <t>23,02; 55,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 31,59</t>
+          <t>7,13; 32,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,77; 48,26</t>
+          <t>18,44; 46,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,95; 52,74</t>
+          <t>18,31; 52,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,92; 77,34</t>
+          <t>28,59; 76,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,17; 27,98</t>
+          <t>11,9; 28,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,66; 38,37</t>
+          <t>18,09; 37,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>32,8; 59,38</t>
+          <t>33,52; 57,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,87; 55,73</t>
+          <t>28,58; 57,06</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,58; 63,79</t>
+          <t>19,04; 59,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 47,67</t>
+          <t>9,98; 51,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,09; 100,0</t>
+          <t>37,61; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,65; 63,06</t>
+          <t>25,2; 63,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,72; 50,7</t>
+          <t>9,78; 50,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,76; 52,92</t>
+          <t>17,69; 53,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,19; 68,83</t>
+          <t>13,6; 69,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,32; 67,22</t>
+          <t>26,02; 68,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,09; 47,91</t>
+          <t>20,62; 49,3</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,18; 44,56</t>
+          <t>19,44; 45,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>33,37; 77,88</t>
+          <t>32,52; 76,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,46; 59,05</t>
+          <t>30,86; 59,18</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,05; 51,88</t>
+          <t>18,05; 51,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>39,43; 72,15</t>
+          <t>38,31; 71,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,62; 66,56</t>
+          <t>18,22; 63,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,08; 46,79</t>
+          <t>13,58; 46,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,94; 62,6</t>
+          <t>7,74; 60,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,73; 65,89</t>
+          <t>20,35; 62,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,72; 71,92</t>
+          <t>18,61; 69,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 47,07</t>
+          <t>9,19; 49,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,57; 49,01</t>
+          <t>20,15; 50,6</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,65; 62,68</t>
+          <t>36,68; 63,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,05; 58,14</t>
+          <t>23,54; 59,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,65; 40,25</t>
+          <t>15,74; 40,91</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,3; 36,81</t>
+          <t>21,16; 36,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,55; 40,8</t>
+          <t>26,45; 41,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,08; 57,74</t>
+          <t>35,12; 58,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,22; 40,9</t>
+          <t>21,99; 41,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,66; 32,42</t>
+          <t>14,4; 32,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,47; 43,01</t>
+          <t>26,54; 43,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,63; 52,87</t>
+          <t>29,06; 52,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,18; 48,09</t>
+          <t>25,34; 47,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,87; 32,33</t>
+          <t>20,71; 32,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,6; 39,6</t>
+          <t>28,24; 39,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>35,95; 52,23</t>
+          <t>36,49; 52,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,83; 40,25</t>
+          <t>25,71; 40,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP09-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que padecen actualmente alguna dolencia o enfermedad continuada</t>
+          <t>Menores que padecen actualmente esa dolencia, enfermedad o impedimento que le ha limitado de forma continuada (más de 10 días en los últimos 12 meses)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>29,48%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33,05%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>50,14%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27,66%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>29,58%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>29,45%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>23,76%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,22%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>29,48%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>33,05%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>50,14%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,08%</t>
+          <t>16,32%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,63; 50,71</t>
+          <t>6,91; 54,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,63; 47,32</t>
+          <t>17,99; 50,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,96; 49,52</t>
+          <t>25,41; 74,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,54</t>
+          <t>9,59; 58,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,32; 57,25</t>
+          <t>12,73; 50,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,82; 50,95</t>
+          <t>15,54; 46,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,43; 75,36</t>
+          <t>8,91; 47,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 61,32</t>
+          <t>0,0; 39,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,39; 45,71</t>
+          <t>16,1; 44,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,01; 43,38</t>
+          <t>20,73; 44,08</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,77; 51,71</t>
+          <t>21,25; 52,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 32,32</t>
+          <t>4,59; 34,48</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31,67%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>33,47%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>51,61%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>21,06%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>25,42%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>55,57%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>37,14%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>16,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>31,67%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>33,47%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,53%</t>
+          <t>36,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>41,89%</t>
+          <t>40,91%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,15; 32,67</t>
+          <t>7,18; 35,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,93; 38,58</t>
+          <t>18,81; 47,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,63; 72,44</t>
+          <t>18,44; 53,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,02; 55,03</t>
+          <t>28,09; 78,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,13; 32,78</t>
+          <t>11,7; 34,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,44; 46,35</t>
+          <t>14,49; 38,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,31; 52,49</t>
+          <t>36,89; 73,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>28,59; 76,9</t>
+          <t>20,9; 53,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 28,51</t>
+          <t>11,62; 28,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,09; 37,69</t>
+          <t>19,44; 37,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,52; 57,58</t>
+          <t>32,86; 57,45</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,58; 57,06</t>
+          <t>27,12; 55,32</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>25,02%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34,72%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39,83%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>46,1%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>40,9%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>25,26%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>76,45%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>43,06%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>25,02%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>34,72%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>39,83%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>46,21%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>44,43%</t>
+          <t>43,61%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,04; 59,72</t>
+          <t>9,55; 46,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,98; 51,02</t>
+          <t>18,22; 55,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>37,61; 100,0</t>
+          <t>14,54; 70,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,2; 63,31</t>
+          <t>24,91; 68,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,78; 50,63</t>
+          <t>22,08; 63,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,69; 53,0</t>
+          <t>9,12; 45,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 69,8</t>
+          <t>38,57; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,02; 68,73</t>
+          <t>23,55; 61,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,62; 49,3</t>
+          <t>18,99; 49,41</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,44; 45,39</t>
+          <t>20,21; 45,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,52; 76,07</t>
+          <t>33,23; 76,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>30,86; 59,18</t>
+          <t>30,4; 58,57</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>31,48%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>40,99%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>44,46%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>31,83%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>33,18%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>55,45%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>38,34%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>29,06%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>31,48%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>40,99%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>44,46%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>28,0%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,05; 51,93</t>
+          <t>8,18; 65,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,31; 71,25</t>
+          <t>20,58; 62,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,22; 63,93</t>
+          <t>19,72; 71,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,58; 46,93</t>
+          <t>10,28; 66,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,74; 60,86</t>
+          <t>18,21; 54,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>20,35; 62,72</t>
+          <t>36,37; 70,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,61; 69,34</t>
+          <t>18,24; 64,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,19; 49,05</t>
+          <t>9,13; 41,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>20,15; 50,6</t>
+          <t>19,82; 47,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,68; 63,73</t>
+          <t>37,0; 63,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,54; 59,23</t>
+          <t>24,82; 60,76</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,74; 40,91</t>
+          <t>15,37; 49,05</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>22,76%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34,27%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40,48%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>38,07%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>28,8%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>33,44%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>46,21%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>31,85%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>22,76%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>34,27%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>40,48%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>35,02%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>33,12%</t>
+          <t>33,06%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,16; 36,82</t>
+          <t>14,34; 32,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,45; 41,14</t>
+          <t>26,05; 42,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>35,12; 58,5</t>
+          <t>29,68; 52,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,99; 41,64</t>
+          <t>26,7; 56,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,4; 32,64</t>
+          <t>21,67; 36,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,54; 43,41</t>
+          <t>26,05; 42,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,06; 52,63</t>
+          <t>35,37; 58,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,34; 47,54</t>
+          <t>18,61; 39,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,71; 32,99</t>
+          <t>20,95; 33,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>28,24; 39,57</t>
+          <t>28,93; 40,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>36,49; 52,28</t>
+          <t>35,85; 52,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,71; 40,67</t>
+          <t>25,71; 42,58</t>
         </is>
       </c>
     </row>
